--- a/МПИС/labs/lab3/lab3.xlsx
+++ b/МПИС/labs/lab3/lab3.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>7000-7500</t>
   </si>
@@ -71,18 +71,70 @@
   <si>
     <t>1000-1500</t>
   </si>
+  <si>
+    <t>Количес-тво заявок в секунду</t>
+  </si>
+  <si>
+    <t>Загрузка памяти</t>
+  </si>
+  <si>
+    <t>Загрузка селекторных каналов</t>
+  </si>
+  <si>
+    <t>Загрузка дисков</t>
+  </si>
+  <si>
+    <t>Загрузка процессора</t>
+  </si>
+  <si>
+    <t>Среднее время обработки в процессоре, (мс)</t>
+  </si>
+  <si>
+    <t>Среднее время операций ввода-вывода, (мс)</t>
+  </si>
+  <si>
+    <t>Время прохождения, (мс)</t>
+  </si>
+  <si>
+    <t>Загрузка памяти мод</t>
+  </si>
+  <si>
+    <t>Загрузка селекторных каналов мод</t>
+  </si>
+  <si>
+    <t>Загрузка дисков мод</t>
+  </si>
+  <si>
+    <t>Загрузка процессора мод</t>
+  </si>
+  <si>
+    <t>Среднее время обработки в процессоре, (мс) мод</t>
+  </si>
+  <si>
+    <t>Среднее время операций ввода-вывода, (мс) мод</t>
+  </si>
+  <si>
+    <t>Время прохождения, (мс) мод</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -101,12 +153,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1033,11 +1247,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83510016"/>
-        <c:axId val="83511552"/>
+        <c:axId val="241003904"/>
+        <c:axId val="241022080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83510016"/>
+        <c:axId val="241003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83511552"/>
+        <c:crossAx val="241022080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83511552"/>
+        <c:axId val="241022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,14 +1279,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83510016"/>
+        <c:crossAx val="241003904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1104,891 +1317,148 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$2</c:f>
+              <c:f>Лист2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,1</c:v>
+                  <c:v>Загрузка памяти</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$B$2:$T$2</c:f>
+              <c:f>Лист2!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$3</c:f>
+              <c:f>Лист2!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,2</c:v>
+                  <c:v>Загрузка памяти мод</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$B$3:$T$3</c:f>
+              <c:f>Лист2!$A$11:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$B$4:$T$4</c:f>
+              <c:f>Лист2!$B$11:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1,5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист2!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Лист2!$B$1:$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1000-1500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500-2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000-2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500-3000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000-3500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500-4000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000-4500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500-5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000-5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500-6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000-6500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500-7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000-7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500-8000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000-8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500-9000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000-9500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500-10000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$7:$T$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1998,29 +1468,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="105457920"/>
-        <c:axId val="105467904"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="105457920"/>
+        <c:axId val="242229248"/>
+        <c:axId val="242187648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="242229248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105467904"/>
+        <c:crossAx val="242187648"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="105467904"/>
+        <c:axId val="242187648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,14 +1498,1448 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105457920"/>
+        <c:crossAx val="242229248"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка селекторных каналов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка селекторных каналов мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="100834304"/>
+        <c:axId val="100841344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="100834304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100841344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="100841344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100834304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка дисков</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка дисков мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94125440"/>
+        <c:axId val="94127232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94125440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94127232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94127232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94125440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка процессора</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Загрузка процессора мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="86967040"/>
+        <c:axId val="86968576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86967040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86968576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86968576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86967040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее время обработки в процессоре, (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее время обработки в процессоре, (мс) мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94485120"/>
+        <c:axId val="100799616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94485120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100799616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="100799616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94485120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее время операций ввода-вывода, (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее время операций ввода-вывода, (мс) мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4139999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94381952"/>
+        <c:axId val="94383488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94381952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94383488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94383488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94381952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.64737270341207354"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время прохождения, (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1512.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1597.3779999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2788.6190000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3641.4209999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20260.034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44623.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время прохождения, (мс) мод</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1494.9190000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1504.797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005.777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2626.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7427.049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25565.966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94404608"/>
+        <c:axId val="94406144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94404608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94406144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94406144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94404608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72222222222222221"/>
+          <c:y val="0.25386191309419653"/>
+          <c:w val="0.26111111111111113"/>
+          <c:h val="0.57097987751531054"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2092,20 +2993,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205468</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>512990</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>300037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>398690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>529318</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2116,7 +3047,167 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>307522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>405493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>372836</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2859,448 +3950,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.988</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1512.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1597.3779999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2788.6190000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.992</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3641.4209999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="B6" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>20260.034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="T1">
-        <v>10000</v>
+      <c r="B7" s="9">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.984</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44623.23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>0.1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="B11" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.004</v>
+      </c>
+      <c r="G11" s="2">
+        <f>0.052+0.147</f>
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1494.9190000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.992</v>
+      </c>
+      <c r="G12" s="2">
+        <f>0.092+0.254</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1504.797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <f>0.318+0.932</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2005.777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="G14" s="2">
+        <f>0.505+1.538</f>
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2626.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>87</v>
+      <c r="B15" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.623</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <f>0.771+2.493</f>
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="H15" s="11">
+        <v>7427.049</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.5</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="B16" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G16" s="12">
+        <f>0.796+2.618</f>
+        <v>3.4139999999999997</v>
+      </c>
+      <c r="H16" s="13">
+        <v>25565.966</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
